--- a/Excel2Json/Test/island_camera.xlsx
+++ b/Excel2Json/Test/island_camera.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="island_camera" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>C</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -60,58 +56,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>vector</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>position</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -276,6 +220,22 @@
   </si>
   <si>
     <t>-47|65|46</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;float&gt;;5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[50]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +672,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,13 +688,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -753,282 +713,282 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
